--- a/Filexel/Kunjungan.xlsx
+++ b/Filexel/Kunjungan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0DEB0-2EEC-4D36-8327-2C88F509B721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE816299-CF6E-4054-86C4-18CABED50CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="2370" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsitedaftar" sheetId="10" r:id="rId1"/>
@@ -21,17 +21,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>DATATES1</t>
+  </si>
+  <si>
+    <t>DAAT2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -42,12 +59,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -77,11 +100,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,16 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D2:I2"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
@@ -408,13 +443,27 @@
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9">
+    <row r="1" spans="2:9">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="I2" s="1"/>
     </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -422,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDADD82-FECB-48D2-A20F-313DDB56FB1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
